--- a/data/trans_camb/P1002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2685852982838868</v>
+        <v>0.3184513616470837</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1035120634599156</v>
+        <v>-0.1355335984082064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6898224253479788</v>
+        <v>-0.6358826923239884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.668381770048576</v>
+        <v>6.393330199594839</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.24139591024289</v>
+        <v>3.381436882458897</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.222532557324538</v>
+        <v>1.848246435241541</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.100278964645192</v>
+        <v>4.389891975294281</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.185241294778892</v>
+        <v>2.299716260576543</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.405679171006039</v>
+        <v>1.498133481634899</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.879915828172382</v>
+        <v>4.923493847414337</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.729992309417355</v>
+        <v>4.229532291854885</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.794309339859073</v>
+        <v>3.868421786170079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.08763515587127</v>
+        <v>12.52526415910426</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.112078094485028</v>
+        <v>9.081212464097584</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.785987437571382</v>
+        <v>6.797582666640602</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.101717999484034</v>
+        <v>8.238596231933254</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.174708413597154</v>
+        <v>6.202311670627228</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.645225485751689</v>
+        <v>4.825344173770072</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.02800696817776522</v>
+        <v>0.07288676284106034</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.004935533138871197</v>
+        <v>-0.05281754607358786</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1602998156967398</v>
+        <v>-0.1510460351919682</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9983814108580957</v>
+        <v>1.00069765202244</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4646251604008812</v>
+        <v>0.5251433322755932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3100039136354629</v>
+        <v>0.2543744520007924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.773964458785694</v>
+        <v>0.8542710334095205</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4142292839276255</v>
+        <v>0.4465721780663989</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2505378471121002</v>
+        <v>0.2766297629218015</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.63684664116051</v>
+        <v>1.700813753653505</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.551909542460173</v>
+        <v>1.451538177183916</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.256811727903207</v>
+        <v>1.390570319713979</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.1619275507608</v>
+        <v>3.077405189044639</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.129817413426802</v>
+        <v>2.232150859046789</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.692313318994499</v>
+        <v>1.750536413444473</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.130836030606935</v>
+        <v>2.252151807472023</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.655645103517832</v>
+        <v>1.651402651892562</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.258844564765045</v>
+        <v>1.263319687393025</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.348875356704839</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.89520701503724</v>
+        <v>2.895207015037242</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.714279236296171</v>
@@ -878,7 +878,7 @@
         <v>1.033998411814828</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.57429625777164</v>
+        <v>1.574296257771642</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.07524634137454045</v>
+        <v>-0.1629445506345119</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.279902554457724</v>
+        <v>-3.195716866623313</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.887585144831597</v>
+        <v>-1.717980348803568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.333615549752193</v>
+        <v>4.395724357954218</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7266735483132084</v>
+        <v>0.6903104790109447</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4521692506254945</v>
+        <v>0.4261517207552855</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.964529768208631</v>
+        <v>2.796255676347927</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6842148112719043</v>
+        <v>-0.6768043135592262</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05122855056099009</v>
+        <v>-0.07150074705742614</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.497192906381346</v>
+        <v>4.335682174117411</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4686238872880336</v>
+        <v>0.3810222864772946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.139882111487323</v>
+        <v>2.173977885123315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.02566456137358</v>
+        <v>10.21590573250101</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.424580660014785</v>
+        <v>5.827167897035014</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.163528104223382</v>
+        <v>5.159114625656086</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.548468511178402</v>
+        <v>6.459592482001844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.456883936796005</v>
+        <v>2.627384595903073</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.324380963026283</v>
+        <v>3.115008910227123</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.4589663574960025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3967907062375727</v>
+        <v>0.396790706237573</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.751068505957572</v>
@@ -983,7 +983,7 @@
         <v>0.1647343323121464</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2508133860963468</v>
+        <v>0.250813386096347</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02871834111210266</v>
+        <v>-0.03002641478276138</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5269303731380746</v>
+        <v>-0.5197498810014236</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2941219901641817</v>
+        <v>-0.2823820328527268</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5233916738847159</v>
+        <v>0.4782562900646819</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08355358944410718</v>
+        <v>0.07922282473282047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04348900841463018</v>
+        <v>0.04690538903334435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4163033058222596</v>
+        <v>0.38998886059729</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09187493544402638</v>
+        <v>-0.09854383149928195</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.003860604707949555</v>
+        <v>-0.008092384351511968</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.061956152408124</v>
+        <v>1.047116853923633</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1233147879767102</v>
+        <v>0.1310965536144461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5027430127199736</v>
+        <v>0.5041465981295092</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.697018987277465</v>
+        <v>1.708753799432732</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.041432749258004</v>
+        <v>1.002615431033589</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8589561616379258</v>
+        <v>0.8931136820908501</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.198409739210323</v>
+        <v>1.160235154171277</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4509070018210889</v>
+        <v>0.4924532600222856</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.605561710885188</v>
+        <v>0.5753788190276252</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.40205944858407</v>
+        <v>-3.144749361090661</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.046953732565863</v>
+        <v>-4.087902237765608</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.861806714552257</v>
+        <v>-1.56041105704564</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.854333918260342</v>
+        <v>-2.603760957498756</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.162305906228923</v>
+        <v>-4.477348153579173</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.118648328841929</v>
+        <v>-4.532494123319692</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.028911266766074</v>
+        <v>-2.180537124808431</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.17755479631925</v>
+        <v>-3.350941075242096</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.195107696623763</v>
+        <v>-2.049270917343793</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.077890157378783</v>
+        <v>2.010661114210107</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.145701377122387</v>
+        <v>1.024433092839305</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.831678150514776</v>
+        <v>3.945277126884957</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.217929835663883</v>
+        <v>4.123130839769523</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.562078055128769</v>
+        <v>2.343590027999507</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.093790947782334</v>
+        <v>2.149449859111212</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.486834827045838</v>
+        <v>2.13999777988252</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.184858827525767</v>
+        <v>0.8916652752534372</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.095512364875865</v>
+        <v>2.218720868851004</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4457686904504154</v>
+        <v>-0.4283638461491441</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5156653854747715</v>
+        <v>-0.5224450028615512</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2384166880080251</v>
+        <v>-0.2154012685576958</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2004775079314931</v>
+        <v>-0.1945122532417108</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3007501194103758</v>
+        <v>-0.3168085976026864</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2940737406372708</v>
+        <v>-0.3144316735843808</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1964837545604575</v>
+        <v>-0.2094418856357604</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3178662027430684</v>
+        <v>-0.3214336337992365</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2119950170933227</v>
+        <v>-0.1961133994580422</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4085858434547782</v>
+        <v>0.4116430189933618</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2586062412196652</v>
+        <v>0.2549260842267509</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7824065740511871</v>
+        <v>0.7997715222612911</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4096607323262398</v>
+        <v>0.4109373932856759</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2380662107323424</v>
+        <v>0.2423608620177078</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2034893462203702</v>
+        <v>0.2098617882763183</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3046975329375291</v>
+        <v>0.261436894724918</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1529459299364778</v>
+        <v>0.1073167906169911</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2603894249471496</v>
+        <v>0.2673696449038511</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.46073016645796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.2361157462266436</v>
+        <v>-0.2361157462266429</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.173825753362663</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4828477861054019</v>
+        <v>-0.5062587790598272</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5567557150489214</v>
+        <v>-0.6449777308466332</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.116465452412896</v>
+        <v>-2.219346478409745</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.505899241952269</v>
+        <v>1.265027707642923</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.407948034227946</v>
+        <v>-2.352392748277395</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09408715600775042</v>
+        <v>0.1133004186227078</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.021733370827483</v>
+        <v>1.270284618774388</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6753860036653144</v>
+        <v>-0.7546970987730818</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.284393973886116</v>
+        <v>-0.3685295154874501</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.08688714192715</v>
+        <v>4.153145626495995</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.816591498438629</v>
+        <v>3.977491784694045</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.811988639130802</v>
+        <v>1.705142910773284</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.083190696546153</v>
+        <v>6.922293803546192</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.929562258365821</v>
+        <v>3.052647439985983</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.205643732678639</v>
+        <v>4.976434548732656</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.890068693360615</v>
+        <v>4.76549137995016</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.829305986110061</v>
+        <v>2.670357549282911</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.848153044459437</v>
+        <v>2.773171036966648</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2751829617538483</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.04448119978306603</v>
+        <v>-0.04448119978306591</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4474535456882461</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07866452622205683</v>
+        <v>-0.08983814604610037</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09259978160013543</v>
+        <v>-0.1152370323257479</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3401998547111765</v>
+        <v>-0.3518860694387498</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1361191890340909</v>
+        <v>0.1089883522169633</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2256771475789392</v>
+        <v>-0.2117213856667153</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005316466664486049</v>
+        <v>4.607022324995915e-05</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.113626497150491</v>
+        <v>0.1516399331060695</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08573668403636794</v>
+        <v>-0.08984918177802326</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.03350803921183967</v>
+        <v>-0.04426342629691501</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9607332630600139</v>
+        <v>0.9551163868324838</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8881566400646072</v>
+        <v>0.9623698631069959</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4359138181950622</v>
+        <v>0.4055653046768521</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8711805128865567</v>
+        <v>0.8465263462526899</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.343435751521281</v>
+        <v>0.3800532185391232</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6561671215033336</v>
+        <v>0.6199515264646398</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.742271300695734</v>
+        <v>0.7218464865057556</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4344614816503712</v>
+        <v>0.402727163476066</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4323655729218888</v>
+        <v>0.4215984534693028</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>1.192130252021803</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.466957182370032</v>
+        <v>1.466957182370034</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4029323904941162</v>
+        <v>0.3351946384440095</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9531810188207355</v>
+        <v>-1.164829981057757</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5526612031054742</v>
+        <v>-0.5555080975179282</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.9228190866145</v>
+        <v>3.794207513181717</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8290644753086449</v>
+        <v>0.6576031331209855</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.934141671283539</v>
+        <v>0.9828274866805203</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.569165623428129</v>
+        <v>2.560220311458695</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.307388150717867</v>
+        <v>0.2932613761369085</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4801582231632586</v>
+        <v>0.6573449041141491</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.784713472193365</v>
+        <v>2.662226826781416</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.307345548645158</v>
+        <v>1.08620955708903</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.802343108772305</v>
+        <v>1.590990963726951</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.042344896655739</v>
+        <v>6.967373470113604</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.740773609038092</v>
+        <v>3.700645201211304</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.554048265556513</v>
+        <v>3.568501100853057</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.4837149860664</v>
+        <v>4.650314032359081</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.221610674855818</v>
+        <v>2.150208419001085</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.332338584217085</v>
+        <v>2.387534181445877</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1734912874193875</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2134869824223196</v>
+        <v>0.2134869824223198</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0658333700311371</v>
+        <v>0.05952204042919877</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1640153674946625</v>
+        <v>-0.1913044418984059</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1000881317776135</v>
+        <v>-0.09528633174406986</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4157313982911451</v>
+        <v>0.421837251167711</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08467134287263627</v>
+        <v>0.07006854950230999</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.100197727065281</v>
+        <v>0.1079354836121378</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3522384315067462</v>
+        <v>0.3482420695563835</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.03983785750702038</v>
+        <v>0.04009086968169628</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.06163183391697449</v>
+        <v>0.09019684523067566</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6067382942365688</v>
+        <v>0.5747964087121562</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2824983244412974</v>
+        <v>0.2263919285207011</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.381206560090006</v>
+        <v>0.3421653324864618</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8920163574618788</v>
+        <v>0.8927576098884394</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4778906249425127</v>
+        <v>0.4744245673478476</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4610583499124604</v>
+        <v>0.4625726454418022</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7068560795907982</v>
+        <v>0.7290568663860859</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3441555568084582</v>
+        <v>0.3378558691730507</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3557503938009229</v>
+        <v>0.3698390003714277</v>
       </c>
     </row>
     <row r="34">
